--- a/Lesson 03/Problem Set/corr_matrix.xlsx
+++ b/Lesson 03/Problem Set/corr_matrix.xlsx
@@ -52,7 +52,7 @@
     <t>income_tax</t>
   </si>
   <si>
-    <t>int_rount</t>
+    <t>int_round</t>
   </si>
 </sst>
 </file>
